--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2000380.614647382</v>
+        <v>1998493.033130979</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>199.3093143219676</v>
       </c>
       <c r="G2" t="n">
-        <v>92.04763989052424</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>20.80418026530505</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>158.829257319332</v>
+        <v>328.9294516263142</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>30.54110646053103</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>48.28463004918702</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>26.53815412835792</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053108</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>12.2327333728883</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1291651532049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>146.3021850733806</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>143.8155637736176</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6772433551179</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>75.98142835561568</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4534201155181</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.562624396424214</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>38.59744043553465</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965513</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437402</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389789</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571478</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523558</v>
+        <v>54.76109577523561</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>119.0854639019656</v>
       </c>
       <c r="U31" t="n">
-        <v>177.417232938939</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952708</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898698</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.851790143458</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>1270.889273203046</v>
+        <v>1512.155724216995</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.889273203046</v>
+        <v>1153.890025610244</v>
       </c>
       <c r="E2" t="n">
-        <v>885.1010206048018</v>
+        <v>1153.890025610244</v>
       </c>
       <c r="F2" t="n">
-        <v>474.1151158151942</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.851790143458</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>677.697741559748</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>527.5811021474123</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>677.697741559748</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1369.416431066817</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C5" t="n">
-        <v>1369.416431066817</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.150732460067</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="E5" t="n">
-        <v>625.3624798618225</v>
+        <v>950.6468339545936</v>
       </c>
       <c r="F5" t="n">
-        <v>214.376575072215</v>
+        <v>539.6609291649861</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.416431066817</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.717708340416</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1257.755191400004</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>899.4894927932537</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>513.7012401950094</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>102.7153354054018</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,19 +5039,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1486.559974221652</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1262.774559011158</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765182</v>
+        <v>973.645920224716</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706313</v>
+        <v>718.9614320188291</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5261,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.0854916454651</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X16" t="n">
-        <v>781.8780707889953</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y16" t="n">
-        <v>561.0854916454651</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>850.2141304319069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>681.2779475040001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>531.1613080916643</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>383.2482145092712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,13 +5671,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473454</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473454</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.996260473454</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1071.006709575437</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>850.2141304319069</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,25 +5732,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5768,16 +5768,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1422.167353026977</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1422.167353026977</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1422.167353026977</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1422.167353026977</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V22" t="n">
-        <v>1167.48286482109</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W22" t="n">
-        <v>878.0656947841296</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="X22" t="n">
-        <v>650.0761438861123</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="Y22" t="n">
-        <v>429.2835647425821</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1260.008946902208</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>970.8803081157661</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>716.1958199098792</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028564</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028564</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028564</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028564</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028579</v>
       </c>
     </row>
     <row r="29">
@@ -6464,13 +6464,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.7225911205018</v>
+        <v>487.2686325076209</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739658</v>
+        <v>487.2686325076209</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430011</v>
+        <v>392.912858376656</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430011</v>
+        <v>300.7606300756338</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264616</v>
+        <v>209.6315478590943</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962058</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,10 +6637,10 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899272</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1616.364332720472</v>
       </c>
       <c r="U31" t="n">
-        <v>1389.418803966123</v>
+        <v>1382.996559215401</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.495181041607</v>
+        <v>1184.072936290885</v>
       </c>
       <c r="W31" t="n">
-        <v>956.8388762860177</v>
+        <v>950.4166315352957</v>
       </c>
       <c r="X31" t="n">
-        <v>784.6101906693705</v>
+        <v>778.1879459186492</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.6101906693705</v>
+        <v>613.1562320564897</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,58 +6692,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,25 +6765,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525404</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649697</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,67 +6920,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7020,16 +7020,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850452</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,19 +7114,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7190,28 +7190,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229679</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504519</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7494,16 +7494,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,13 +7631,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7655,25 +7655,25 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>285.1031356539334</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.6880766107149</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>82.39383318338611</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>20.94463602524723</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>74.76908957847721</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>28.7438046678134</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>33.98292404817721</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>44.13123323657673</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>192.358185587179</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>182.9501206228546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338601</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801194</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>47.2588405278665</v>
       </c>
       <c r="U31" t="n">
-        <v>53.61686283108117</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="10">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
@@ -26335,13 +26335,13 @@
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="K2" t="n">
-        <v>528868.778548852</v>
+        <v>528868.7785488521</v>
       </c>
       <c r="L2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="M2" t="n">
         <v>533677.1504117844</v>
@@ -26353,7 +26353,7 @@
         <v>533677.1504117844</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284578</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284573</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.2921356357</v>
+        <v>33210.29213563568</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275965</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="M4" t="n">
-        <v>37464.45686275957</v>
-      </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26522,34 +26522,34 @@
         <v>-295924.7651173921</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971526</v>
+        <v>294043.1140971523</v>
       </c>
       <c r="D6" t="n">
-        <v>294043.1140971526</v>
+        <v>294043.1140971525</v>
       </c>
       <c r="E6" t="n">
-        <v>-123855.2543880298</v>
+        <v>-123952.7135140025</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.7820888659</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="G6" t="n">
-        <v>401304.7820888659</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="H6" t="n">
-        <v>401304.7820888658</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="I6" t="n">
-        <v>401304.7820888658</v>
+        <v>401207.3229628935</v>
       </c>
       <c r="J6" t="n">
-        <v>224881.5628962728</v>
+        <v>224784.1037703006</v>
       </c>
       <c r="K6" t="n">
-        <v>354867.6725801477</v>
+        <v>354849.1788422135</v>
       </c>
       <c r="L6" t="n">
-        <v>388154.6809281326</v>
+        <v>388154.6809281327</v>
       </c>
       <c r="M6" t="n">
         <v>263696.5724951623</v>
@@ -26561,7 +26561,7 @@
         <v>398497.5877289994</v>
       </c>
       <c r="P6" t="n">
-        <v>354334.9824261536</v>
+        <v>354334.9824261538</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,10 +26756,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>207.5667314197439</v>
       </c>
       <c r="G2" t="n">
-        <v>321.7365301302708</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>231.3334630585229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>254.954912701463</v>
+        <v>84.85471839448081</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>125.6297823812641</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>365.499539971608</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>27.94024844645378</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380968</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36923,10 +36923,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412274</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084857</v>
@@ -37005,10 +37005,10 @@
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043197</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,13 +37631,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>618.2977090519462</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
